--- a/DatosUsuarios.xlsx
+++ b/DatosUsuarios.xlsx
@@ -433,140 +433,140 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Gabriela</v>
+        <v>Brian</v>
       </c>
       <c r="B2" t="str">
-        <v>Diaz</v>
+        <v>Santillan</v>
       </c>
       <c r="C2">
-        <v>32027405</v>
+        <v>36245918</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E2" t="str">
         <v>Galeno</v>
       </c>
       <c r="F2" t="str">
-        <v>gabydiaz@gmail.com</v>
+        <v>bsantillan@gmail.com</v>
       </c>
       <c r="G2" t="str">
-        <v>Gabydiaz27#</v>
+        <v>Bsantillan18#</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Silvia</v>
+        <v>Belen</v>
       </c>
       <c r="B3" t="str">
-        <v>Barcia</v>
+        <v>Archenzio</v>
       </c>
       <c r="C3">
-        <v>24568724</v>
+        <v>36126020</v>
       </c>
       <c r="D3">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E3" t="str">
         <v>Galeno</v>
       </c>
       <c r="F3" t="str">
-        <v>barciacontaduria@gmail.com</v>
+        <v>belarchenzio@gmail.com</v>
       </c>
       <c r="G3" t="str">
-        <v>Barcia24#</v>
+        <v>Belchu20#</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Oscar</v>
+        <v>Valeria</v>
       </c>
       <c r="B4" t="str">
-        <v>Lopez Diaz</v>
+        <v>Maturana</v>
       </c>
       <c r="C4">
-        <v>11356278</v>
+        <v>25365124</v>
       </c>
       <c r="D4">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="E4" t="str">
-        <v>Pami</v>
+        <v>Galeno</v>
       </c>
       <c r="F4" t="str">
-        <v>oscarind@gmail.com</v>
+        <v>valeriamatu@gmail.com</v>
       </c>
       <c r="G4" t="str">
-        <v>Oscarind16#</v>
+        <v>Matu06#</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Wendy</v>
+        <v>Matias</v>
       </c>
       <c r="B5" t="str">
-        <v>Collace</v>
+        <v>Gravante</v>
       </c>
       <c r="C5">
-        <v>37124612</v>
+        <v>36125698</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" t="str">
         <v>Galeno</v>
       </c>
       <c r="F5" t="str">
-        <v>wendy93@gmail.com</v>
+        <v>matigravante@gmail.com</v>
       </c>
       <c r="G5" t="str">
-        <v>Wendy93#</v>
+        <v>Gravante17#</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Camila</v>
+        <v>Ayelen</v>
       </c>
       <c r="B6" t="str">
-        <v>Brando</v>
+        <v>Suarez</v>
       </c>
       <c r="C6">
-        <v>37005193</v>
+        <v>38019093</v>
       </c>
       <c r="D6">
         <v>28</v>
       </c>
       <c r="E6" t="str">
-        <v>Galeno</v>
+        <v>Swiss Medical</v>
       </c>
       <c r="F6" t="str">
-        <v>camibrando93@gmail.com</v>
+        <v>axitasua@gmail.com</v>
       </c>
       <c r="G6" t="str">
-        <v>Brando93#</v>
+        <v>Axitasua93#</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Ayelen</v>
+        <v>Gabriel</v>
       </c>
       <c r="B7" t="str">
-        <v>Suarez</v>
+        <v>Segault</v>
       </c>
       <c r="C7">
-        <v>37496587</v>
+        <v>20311476</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E7" t="str">
-        <v>Galeno</v>
+        <v>Osdic</v>
       </c>
       <c r="F7" t="str">
-        <v>axitasua@gmail.com</v>
+        <v>gabysegault@gmail.com</v>
       </c>
       <c r="G7" t="str">
-        <v>Axitasua19#</v>
+        <v>Segault76#</v>
       </c>
     </row>
   </sheetData>

--- a/DatosUsuarios.xlsx
+++ b/DatosUsuarios.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -569,9 +569,32 @@
         <v>Segault76#</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Nancy</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Cottet</v>
+      </c>
+      <c r="C8">
+        <v>12422365</v>
+      </c>
+      <c r="D8">
+        <v>61</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Pami</v>
+      </c>
+      <c r="F8" t="str">
+        <v>nancycottet@gmail.com</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Nancy09#</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I8"/>
   </ignoredErrors>
 </worksheet>
 </file>